--- a/data/SAFI_messy.xlsx
+++ b/data/SAFI_messy.xlsx
@@ -1,61 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pfsmy\OneDrive\UoM\Carpentry\Lessons\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebecker/Box Sync/Carpentry_repos/datacarpentry-lessons/socialsci/spreadsheets-socialsci/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="7552820246BD6A61BA24389746D85C18E454201A" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{E58768A2-FC28-4A71-A326-2FF0543FA2A0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16848" windowHeight="7464" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3400" yWindow="460" windowWidth="25960" windowHeight="15780"/>
   </bookViews>
   <sheets>
-    <sheet name="SAFI_Results_pt 1" sheetId="2" r:id="rId1"/>
-    <sheet name="SAFI_Results_pt 2" sheetId="3" r:id="rId2"/>
+    <sheet name="Mozambique" sheetId="2" r:id="rId1"/>
+    <sheet name="Tanzania" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Peter Smyth</author>
-  </authors>
-  <commentList>
-    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Peter Smyth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Depends on season</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
   <si>
     <t>key_id</t>
   </si>
@@ -135,9 +108,6 @@
     <t>1, poultry</t>
   </si>
   <si>
-    <t>livstock_owned_and_numbers</t>
-  </si>
-  <si>
     <t>3, (oxen , cows,  goats)</t>
   </si>
   <si>
@@ -159,15 +129,6 @@
     <t>3, (oxen ,  cows ,  goats)</t>
   </si>
   <si>
-    <t>5*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes </t>
-  </si>
-  <si>
-    <t>* = includes Barn</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAFI Results (Tanzania) </t>
   </si>
   <si>
@@ -214,13 +175,22 @@
   </si>
   <si>
     <t>4*</t>
+  </si>
+  <si>
+    <t>livestock_owned_and_numbers</t>
+  </si>
+  <si>
+    <t>includes barn</t>
+  </si>
+  <si>
+    <t>yes (only in summer)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,19 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -383,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,30 +522,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -718,6 +663,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -763,20 +734,30 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -833,21 +814,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F142B3B5-BD83-4F4B-9528-5A78AF651D10}" name="Table1" displayName="Table1" ref="C25:H35" totalsRowShown="0">
-  <autoFilter ref="C25:H35" xr:uid="{E64133F5-F51D-44EA-8F1B-4845648283E5}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{345858A7-8A92-487B-99D8-ECB15D6D82A5}" name="Oxen"/>
-    <tableColumn id="7" xr3:uid="{C528773D-102E-4ACD-AE33-DCB076451425}" name="Poultry"/>
-    <tableColumn id="6" xr3:uid="{1BFF4058-5B82-4D97-8707-77A7ED28500D}" name="Goats"/>
-    <tableColumn id="5" xr3:uid="{1CBCBF22-DC2E-47F5-8D2D-B0569A5D0B14}" name="Cows"/>
-    <tableColumn id="2" xr3:uid="{0A518003-5951-4082-A4EF-EB352DA56FFF}" name="Total"/>
-    <tableColumn id="4" xr3:uid="{A4778767-ECFB-408D-BFBA-9B6216A1CEAD}" name="Look after cows"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1146,908 +1112,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="C2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
+    <row r="2" spans="2:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>-99</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="6">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="6">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="6">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
         <v>7</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
         <v>8</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="6">
         <v>9</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="4" t="s">
+      <c r="F19" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H21" s="6"/>
+      <c r="I21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="1"/>
+      <c r="H22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="I22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
+      </c>
+      <c r="I24" s="6">
+        <v>3</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="6">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>4</v>
+      </c>
+      <c r="I26" s="6">
+        <v>3</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="6">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2</v>
-      </c>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="E27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="6">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
+      <c r="E28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>6</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="6">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6">
+        <v>7</v>
+      </c>
+      <c r="I29" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="J29" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="6">
+        <v>7</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>8</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="6">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="E31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>9</v>
+      </c>
+      <c r="I31" s="6">
+        <v>-999</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="1">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="1">
-        <v>6</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="1">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3">
-        <v>4</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="1">
-        <v>8</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>9</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>9</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-999</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G33" s="1">
+      <c r="E32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" s="6">
         <v>10</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B4A2CA-0214-42C0-9CEE-ED2F316558F2}">
-  <dimension ref="B5:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="I5" t="s">
+      <c r="D25" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="E25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="7">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
+        <v>4</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="7">
         <v>8</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="7">
         <v>9</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="C23" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
         <v>0</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>3</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>46</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2055,8 +2034,5 @@
     <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>